--- a/StudentMaster.xlsx
+++ b/StudentMaster.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_C19B85A035F66FFC05FC9890E26E227354D2D80C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B071D39-E669-F849-9B0D-23DFFA5E903A}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_C19B85A035F66FFC05FC9890E26E227354D2D80C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A222D61-F335-414D-AE91-83429B4C70A0}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>panditgitanjalishukla@gmail.com</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>dhruv@2015</t>
+  </si>
+  <si>
+    <t>pushp@2013</t>
+  </si>
+  <si>
+    <t>git@2011</t>
   </si>
 </sst>
 </file>
@@ -445,9 +457,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -455,7 +469,7 @@
     <col min="3" max="3" width="20.84765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,8 +482,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -482,8 +499,11 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -496,8 +516,11 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -509,6 +532,9 @@
       </c>
       <c r="D4" t="s">
         <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -516,6 +542,9 @@
     <hyperlink ref="C2" r:id="rId1" xr:uid="{F121A41B-AF8F-A84B-AA9A-505BE76A9854}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{E1F06429-AE3D-E341-A383-704D9143AAF6}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{A41C1189-8DCD-8142-8E38-9C1C4C397966}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{F92E8FE4-125F-5B4F-8B40-1D2B1B8F8E04}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{130001D3-1436-304D-88B1-8359A0D8A355}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{97A5C159-0E3C-3E43-8AC7-9FD061B322B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StudentMaster.xlsx
+++ b/StudentMaster.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_C19B85A035F66FFC05FC9890E26E227354D2D80C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A222D61-F335-414D-AE91-83429B4C70A0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F71E9905-080F-5142-95DD-4DA8B4D84810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -42,13 +42,22 @@
     <t>Class</t>
   </si>
   <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Subscription Date</t>
+  </si>
+  <si>
+    <t>Subscription Valid Till</t>
+  </si>
+  <si>
+    <t>Notebook Upload Path</t>
+  </si>
+  <si>
     <t>Dhruv Shukla</t>
   </si>
   <si>
-    <t>Pushpanjali</t>
-  </si>
-  <si>
-    <t>Gitanjali</t>
+    <t>Pushpanjali Shukla</t>
   </si>
   <si>
     <t>6th</t>
@@ -57,7 +66,10 @@
     <t>8th</t>
   </si>
   <si>
-    <t>9th</t>
+    <t>2025-07-13</t>
+  </si>
+  <si>
+    <t>2025-08-12</t>
   </si>
   <si>
     <t>panditdhruvshukla@gmail.com</t>
@@ -66,19 +78,10 @@
     <t>panditpushpanjalishukla@gmail.com</t>
   </si>
   <si>
-    <t>panditgitanjalishukla@gmail.com</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>dhruv@2015</t>
   </si>
   <si>
     <t>pushp@2013</t>
-  </si>
-  <si>
-    <t>git@2011</t>
   </si>
 </sst>
 </file>
@@ -457,19 +460,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.31640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.84765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.38671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.27734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.63671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.84765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,68 +489,70 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
+      <c r="G3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{F121A41B-AF8F-A84B-AA9A-505BE76A9854}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{E1F06429-AE3D-E341-A383-704D9143AAF6}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{A41C1189-8DCD-8142-8E38-9C1C4C397966}"/>
-    <hyperlink ref="E2" r:id="rId4" xr:uid="{F92E8FE4-125F-5B4F-8B40-1D2B1B8F8E04}"/>
-    <hyperlink ref="E3" r:id="rId5" xr:uid="{130001D3-1436-304D-88B1-8359A0D8A355}"/>
-    <hyperlink ref="E4" r:id="rId6" xr:uid="{97A5C159-0E3C-3E43-8AC7-9FD061B322B8}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{6727053D-0765-354A-B609-EF2DFE8EDB69}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{E116AAE7-795D-9D44-B93C-D55A45B148D2}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{2B1E4D61-993F-6141-BF0E-0E37C45A96B4}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{CD702266-EA47-9A4C-972C-17F147129D90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StudentMaster.xlsx
+++ b/StudentMaster.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F71E9905-080F-5142-95DD-4DA8B4D84810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{F71E9905-080F-5142-95DD-4DA8B4D84810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08506F46-D536-8F43-A7D4-26E3318D6C9D}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Subscription Valid Till</t>
   </si>
   <si>
-    <t>Notebook Upload Path</t>
-  </si>
-  <si>
     <t>Dhruv Shukla</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>pushp@2013</t>
+  </si>
+  <si>
+    <t>Payment Confirmed</t>
   </si>
 </sst>
 </file>
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -475,7 +475,7 @@
     <col min="8" max="8" width="20.84765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,53 +498,54 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/StudentMaster.xlsx
+++ b/StudentMaster.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{F71E9905-080F-5142-95DD-4DA8B4D84810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08506F46-D536-8F43-A7D4-26E3318D6C9D}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Desktop\TuitionApp_Structure\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -48,9 +52,6 @@
     <t>Subscription Date</t>
   </si>
   <si>
-    <t>Subscription Valid Till</t>
-  </si>
-  <si>
     <t>Dhruv Shukla</t>
   </si>
   <si>
@@ -82,12 +83,15 @@
   </si>
   <si>
     <t>Payment Confirmed</t>
+  </si>
+  <si>
+    <t>Subscription Till</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -174,9 +178,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,9 +218,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,7 +255,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,7 +290,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -459,23 +463,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.38671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.27734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.63671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.84765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,65 +499,65 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{6727053D-0765-354A-B609-EF2DFE8EDB69}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{E116AAE7-795D-9D44-B93C-D55A45B148D2}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{2B1E4D61-993F-6141-BF0E-0E37C45A96B4}"/>
-    <hyperlink ref="E3" r:id="rId4" xr:uid="{CD702266-EA47-9A4C-972C-17F147129D90}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StudentMaster.xlsx
+++ b/StudentMaster.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Desktop\TuitionApp_Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_719A4257E1FA27CE1996D023849CE5F90D442CD1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8F7A234-AA59-C746-B339-9D251A6BC1C8}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -85,13 +86,13 @@
     <t>Payment Confirmed</t>
   </si>
   <si>
-    <t>Subscription Till</t>
+    <t>Subscribed Till</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -178,9 +179,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -218,9 +219,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,7 +256,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,7 +291,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -463,23 +464,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.38671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.27734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.63671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.84765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +507,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -529,7 +530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -554,10 +555,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="E3" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
